--- a/config_0817/permission_server_config.xlsx
+++ b/config_0817/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1552">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6949,6 +6949,14 @@
   </si>
   <si>
     <t>2020年8月24日23:59:59结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_0818_bxfl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾啤酒节-捕虾福利（非新玩家）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11580,13 +11588,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E248" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C269" sqref="C269"/>
+      <selection pane="bottomRight" activeCell="K269" sqref="K269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20630,6 +20638,38 @@
         <v>1549</v>
       </c>
     </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A266" s="26">
+        <v>265</v>
+      </c>
+      <c r="B266" s="26">
+        <v>1</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G266" s="26">
+        <v>252</v>
+      </c>
+      <c r="H266" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I266" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" s="16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K266" s="26">
+        <v>1597680000</v>
+      </c>
+      <c r="L266" s="26" t="s">
+        <v>1549</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -20640,13 +20680,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C612" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D634" sqref="D634"/>
+      <selection pane="bottomRight" activeCell="D639" sqref="D639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35225,6 +35265,29 @@
         <v>1</v>
       </c>
       <c r="G631" s="10" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A632" s="9">
+        <v>631</v>
+      </c>
+      <c r="B632" s="9">
+        <v>252</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="D632" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="E632" s="8">
+        <v>5</v>
+      </c>
+      <c r="F632" s="8">
+        <v>1</v>
+      </c>
+      <c r="G632" s="10" t="s">
         <v>944</v>
       </c>
     </row>
